--- a/COVID_19_tracker/EGY_COVID_19_Database.xlsx
+++ b/COVID_19_tracker/EGY_COVID_19_Database.xlsx
@@ -1,52 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_REpos\Python\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CAEC64-568B-4003-9F76-48D6BA39E056}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="EGY_COVID_19_Database" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EGY_COVID_19_Database" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Total Cases</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -65,23 +48,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -369,84 +343,109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col width="30.5703125" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Total Cases</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>43917.55969907406</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>536</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43918.563009259262</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>43918.56300925926</v>
+      </c>
+      <c r="B3" t="n">
         <v>576</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>43919.56322916667</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>609</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>43920.593344907407</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>43920.59334490741</v>
+      </c>
+      <c r="B5" t="n">
         <v>656</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>43921.597766203689</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>43921.59776620369</v>
+      </c>
+      <c r="B6" t="n">
         <v>710</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>43922.600115740737</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>43922.60011574074</v>
+      </c>
+      <c r="B7" t="n">
         <v>779</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>43923.685833333337</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>43923.68583333334</v>
+      </c>
+      <c r="B8" t="n">
         <v>865</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>2020-04-03 07:43:08.308140</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020-04-03 08:16:52.323186</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>865</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/COVID_19_tracker/EGY_COVID_19_Database.xlsx
+++ b/COVID_19_tracker/EGY_COVID_19_Database.xlsx
@@ -348,7 +348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:B10"/>
@@ -447,6 +447,16 @@
         <v>865</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020-04-03 08:22:23.418639</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>865</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/COVID_19_tracker/EGY_COVID_19_Database.xlsx
+++ b/COVID_19_tracker/EGY_COVID_19_Database.xlsx
@@ -348,10 +348,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -430,31 +430,61 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>2020-04-03 07:43:08.308140</t>
+          <t>2020-04-03 11:46:16.885835</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>865</v>
+        <v>985</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2020-04-03 08:16:52.323186</t>
+          <t>2020-04-04 14:59:10.656771</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>865</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2020-04-03 08:22:23.418639</t>
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>2020-04-05 11:37:24.874585</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>865</v>
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2020-04-06 14:01:22.145288</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>2020-04-10 12:22:18.681600</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2020-04-15 17:55:35.226085</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2505</v>
       </c>
     </row>
   </sheetData>
